--- a/docs/StructureDefinition-Observation-fetal-death-time-point.xlsx
+++ b/docs/StructureDefinition-Observation-fetal-death-time-point.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Observation-fetal-death-time-point.xlsx
+++ b/docs/StructureDefinition-Observation-fetal-death-time-point.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Observation-fetal-death-time-point.xlsx
+++ b/docs/StructureDefinition-Observation-fetal-death-time-point.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: U.S. Standard Report of Fetal Death (rev. 2003)</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -253,9 +256,6 @@
   </si>
   <si>
     <t>Mapping: SNOMED CT Attribute Binding</t>
-  </si>
-  <si>
-    <t>Mapping: U.S. Standard Report of Fetal Death (rev. 2003)</t>
   </si>
   <si>
     <t>Vital Signs
@@ -922,6 +922,9 @@
 obs-7</t>
   </si>
   <si>
+    <t>18e. Estimated Time of Fetal Death</t>
+  </si>
+  <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
   </si>
   <si>
@@ -932,9 +935,6 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>18e. Estimated Time of Fetal Death</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1845,13 +1845,13 @@
     <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="54.27734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="54.27734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="102.73828125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2087,19 +2087,19 @@
         <v>88</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AN2" t="s" s="2">
+      <c r="AO2" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>83</v>
@@ -2340,10 +2340,10 @@
         <v>83</v>
       </c>
       <c r="AN4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO4" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AO4" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP4" t="s" s="2">
         <v>83</v>
@@ -2463,10 +2463,10 @@
         <v>83</v>
       </c>
       <c r="AN5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO5" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AO5" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP5" t="s" s="2">
         <v>83</v>
@@ -2586,10 +2586,10 @@
         <v>83</v>
       </c>
       <c r="AN6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AO6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP6" t="s" s="2">
         <v>83</v>
@@ -2709,10 +2709,10 @@
         <v>83</v>
       </c>
       <c r="AN7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO7" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>83</v>
@@ -2832,10 +2832,10 @@
         <v>83</v>
       </c>
       <c r="AN8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO8" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>83</v>
@@ -2955,10 +2955,10 @@
         <v>83</v>
       </c>
       <c r="AN9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO9" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>83</v>
@@ -3080,10 +3080,10 @@
         <v>83</v>
       </c>
       <c r="AN10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO10" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>83</v>
@@ -3194,22 +3194,22 @@
         <v>107</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>83</v>
@@ -3319,19 +3319,19 @@
         <v>172</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>83</v>
@@ -3442,19 +3442,19 @@
         <v>172</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>83</v>
@@ -3567,22 +3567,22 @@
         <v>107</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AO14" t="s" s="2">
+      <c r="AP14" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>83</v>
@@ -3698,16 +3698,16 @@
         <v>83</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AO15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>83</v>
@@ -3817,25 +3817,25 @@
         <v>107</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AO16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AP16" t="s" s="2">
+      <c r="AQ16" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AQ16" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -3942,22 +3942,22 @@
         <v>172</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>83</v>
@@ -4071,16 +4071,16 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AO18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>83</v>
@@ -4190,22 +4190,22 @@
         <v>172</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AO19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>83</v>
@@ -4315,22 +4315,22 @@
         <v>107</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AO20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>83</v>
@@ -4444,16 +4444,16 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AO21" t="s" s="2">
+      <c r="AP21" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>83</v>
@@ -4563,22 +4563,22 @@
         <v>172</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AO22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>83</v>
@@ -4688,10 +4688,10 @@
         <v>107</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>289</v>
@@ -4700,10 +4700,10 @@
         <v>290</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>292</v>
@@ -4819,13 +4819,13 @@
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4941,22 +4941,22 @@
         <v>83</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AO25" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ25" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -5069,13 +5069,13 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5189,22 +5189,22 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AO27" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ27" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AQ27" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -5317,13 +5317,13 @@
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5437,22 +5437,22 @@
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AO29" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ29" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -5560,22 +5560,22 @@
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AO30" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ30" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AQ30" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -5688,13 +5688,13 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>83</v>
@@ -5812,10 +5812,10 @@
         <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>83</v>
@@ -5935,10 +5935,10 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>83</v>
@@ -6060,10 +6060,10 @@
         <v>83</v>
       </c>
       <c r="AN34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>83</v>
@@ -6180,13 +6180,13 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>83</v>
@@ -6303,13 +6303,13 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>83</v>
@@ -6425,16 +6425,16 @@
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>83</v>
@@ -6550,16 +6550,16 @@
         <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>83</v>
@@ -6678,13 +6678,13 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>83</v>
@@ -6801,13 +6801,13 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>83</v>
@@ -6924,13 +6924,13 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>83</v>
@@ -7047,13 +7047,13 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>83</v>
@@ -7172,13 +7172,13 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -7296,10 +7296,10 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7419,10 +7419,10 @@
         <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -7544,10 +7544,10 @@
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
@@ -7663,19 +7663,19 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AO47" t="s" s="2">
+      <c r="AP47" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>83</v>
@@ -7788,22 +7788,22 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>290</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>83</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -7916,13 +7916,13 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>83</v>
@@ -8038,22 +8038,22 @@
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AO50" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -8166,13 +8166,13 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
